--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="784" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4274F67A-08CF-477F-AD7D-AE46C62A8372}"/>
+  <xr:revisionPtr revIDLastSave="838" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC5C05E-9B21-464E-8FAA-E26508298A13}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="90" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="222">
   <si>
     <t xml:space="preserve"># Column </t>
   </si>
@@ -83,9 +83,6 @@
     <t>AccID</t>
   </si>
   <si>
-    <t>int64</t>
-  </si>
-  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>lat</t>
-  </si>
-  <si>
-    <t>float64</t>
   </si>
   <si>
     <t>long</t>
@@ -954,6 +948,12 @@
   </si>
   <si>
     <t>dm_Accident ID</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -1409,15 +1409,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,6 +1457,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1708,6 +1708,471 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>935935</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBA7DA8-DA04-8B72-268C-7AF67EBBF425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3412435" y="695739"/>
+          <a:ext cx="389283" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1171160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127552</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14F6813-2F4C-4343-9FF5-B303B4DBEEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5469834" y="1552161"/>
+          <a:ext cx="389283" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1381538</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>255103</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326FD6B3-3BBF-4AEB-850E-A57D3230481E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7113103" y="1530626"/>
+          <a:ext cx="389283" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1:n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012133</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65F2AD4-91D7-43A4-B69E-6B9192CB662F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9303024" y="664265"/>
+          <a:ext cx="389283" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1:n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1416325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA2F4F8-8B49-4E70-8ACF-60B26F13C1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8680176" y="2758109"/>
+          <a:ext cx="1416323" cy="57981"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1416326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Elbow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B05F4F-386D-4139-B2E2-6CB9CA9D9197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8700054" y="2819404"/>
+          <a:ext cx="1396446" cy="54662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167307</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556590</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52E4493-3225-4162-A820-0BCD75DC08AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8847481" y="2668657"/>
+          <a:ext cx="389283" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1:n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2015,11 +2480,11 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="11.25"/>
@@ -2039,7 +2504,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="33.75">
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8">
         <v>218404</v>
@@ -2047,7 +2512,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2064,17 +2529,17 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
-        <v>37</v>
+      <c r="D2" s="95" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -2083,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
@@ -2099,10 +2564,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2156,24 +2621,26 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="58">
         <v>0</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2189,27 +2656,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="I5" s="58">
         <v>0</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2225,27 +2694,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="I6" s="58">
         <v>0</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2262,27 +2733,29 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="I7" s="58">
         <v>0</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -2299,27 +2772,29 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="58">
         <v>0</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2336,29 +2811,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="58">
         <v>0</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -2375,27 +2852,29 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="58">
         <v>0</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2412,27 +2891,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="58">
         <v>0</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2449,29 +2930,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="58">
         <v>0</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2488,29 +2971,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="58">
         <v>0</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2527,29 +3012,31 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="58">
         <v>0</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2566,29 +3053,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="58">
         <v>0</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2605,27 +3094,29 @@
         <v>13</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="60">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2642,27 +3133,29 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="I17" s="58">
         <v>0</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2679,27 +3172,29 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="50"/>
       <c r="F18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="I18" s="58">
         <v>0</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2741,7 +3236,7 @@
     <dataValidation type="list" allowBlank="1" sqref="D4:D18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Quantitative,Categorical - Binary,Categorical - 3 to 5 categories,Categorical - 6 to 10 categories,Categorical - more than 10 categories,Unique Value"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H4:H18 F4:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F18 H4:H18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"feature,target"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2758,10 +3253,10 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B21"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="11.25"/>
@@ -2781,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="22.5">
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8">
         <v>218404</v>
@@ -2789,7 +3284,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2804,17 +3299,17 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="31.5">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
-        <v>37</v>
+      <c r="D2" s="95" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -2823,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
@@ -2838,10 +3333,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="89.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -2893,28 +3388,28 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="22">
         <v>0</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2928,31 +3423,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="22">
         <v>0</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2966,29 +3461,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="28">
         <v>0.105648248200582</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3002,29 +3497,29 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="24" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I7" s="22">
         <v>4.9202395560520799E-2</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3038,29 +3533,29 @@
         <v>5</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="33">
         <v>0.92089888463581204</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3074,31 +3569,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="F9" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H9" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I9" s="22">
         <v>0</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3112,29 +3607,29 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H10" s="24" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="I10" s="22">
         <v>4.5786707203164702E-4</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -3148,31 +3643,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H11" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I11" s="22">
         <v>0</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3186,31 +3681,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H12" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -3224,29 +3719,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -3260,29 +3755,29 @@
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="24" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3296,31 +3791,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3334,29 +3829,29 @@
         <v>13</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>16</v>
-      </c>
       <c r="H16" s="32" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="I16" s="33">
         <v>0.99772897932272298</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -3370,29 +3865,29 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>16</v>
-      </c>
       <c r="H17" s="27" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="I17" s="28">
         <v>0.26770571967546303</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -3406,31 +3901,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H18" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I18" s="22">
         <v>0</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -3444,31 +3939,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H19" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I19" s="22">
         <v>0</v>
       </c>
       <c r="J19" s="71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="101.25">
@@ -3476,31 +3971,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H20" s="24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I20" s="22">
         <v>0</v>
       </c>
       <c r="J20" s="71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5">
@@ -3508,27 +4003,27 @@
         <v>18</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="46"/>
       <c r="F21" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="61" t="s">
-        <v>16</v>
-      </c>
       <c r="H21" s="24" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="I21" s="48">
         <v>0</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3562,7 +4057,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B14"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75"/>
@@ -3582,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:36">
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8">
         <v>373584</v>
@@ -3590,7 +4085,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3607,17 +4102,17 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
-        <v>37</v>
+      <c r="D2" s="95" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -3626,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
@@ -3634,7 +4129,7 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -3642,10 +4137,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +4156,7 @@
       <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="77"/>
+      <c r="J3" s="94"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -3697,22 +4192,24 @@
         <v>13</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="H4" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="73">
         <v>0</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3728,25 +4225,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="73">
         <v>0</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3762,25 +4261,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="H6" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="73">
         <v>0</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3796,27 +4297,29 @@
         <v>4</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="H7" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="73">
         <v>0</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3832,27 +4335,29 @@
         <v>5</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="73">
         <v>0</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3868,27 +4373,29 @@
         <v>6</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="H9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="73">
         <v>0</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3904,27 +4411,29 @@
         <v>7</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="73">
         <v>0</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -3940,27 +4449,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="73">
         <v>0</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3976,27 +4487,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="H12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="73">
         <v>0</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -4012,27 +4525,29 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="73">
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -4048,25 +4563,27 @@
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="I14" s="33">
         <v>0.99177159621397004</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4156,7 +4673,7 @@
     <mergeCell ref="J2:J3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="H4 F4" xr:uid="{6E48D26E-9C14-438C-B5BD-C82CF1A9BF1B}">
+    <dataValidation type="list" allowBlank="1" sqref="H4:H13 F4" xr:uid="{6E48D26E-9C14-438C-B5BD-C82CF1A9BF1B}">
       <formula1>"feature,target"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D4:E6 D14" xr:uid="{B7415417-2B1C-4C25-BB2F-6D70F6024B06}">
@@ -4175,11 +4692,11 @@
   </sheetPr>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4199,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="22.5">
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8">
         <v>494182</v>
@@ -4207,7 +4724,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="51"/>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4224,17 +4741,17 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="47.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
-        <v>37</v>
+      <c r="D2" s="95" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>5</v>
@@ -4243,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
@@ -4259,10 +4776,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
@@ -4316,24 +4833,26 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="22">
         <v>0</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4349,27 +4868,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="22">
         <v>0</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4385,27 +4906,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="22">
         <v>0</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4421,27 +4944,29 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="22">
         <v>0</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -4457,29 +4982,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="22">
         <v>0</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -4495,29 +5022,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="11"/>
+        <v>176</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I9" s="22">
         <v>0</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4533,29 +5062,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="22">
         <v>0</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4571,27 +5102,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="I11" s="22">
         <v>1.20218866733308E-2</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -4607,29 +5140,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -4645,29 +5180,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="22">
         <v>0</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="123.75">
@@ -4675,29 +5212,31 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="123.75">
@@ -4705,29 +5244,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="22">
         <v>0</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="90">
@@ -4735,29 +5276,31 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="22">
         <v>0</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="146.25">
@@ -4765,29 +5308,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="22">
         <v>0</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
@@ -4795,29 +5340,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="I18" s="22">
         <v>0</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4827,11 +5374,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D4:D6" xr:uid="{06C0A109-B5BB-4DDC-921C-77AB410A402F}">
       <formula1>"Quantitative,Categorical - Binary,Categorical - 3 to 5 categories,Categorical - 6 to 10 categories,Categorical - more than 10 categories,Unique Value"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H4 F4" xr:uid="{3B54F6C1-9CE8-4B76-B6A6-89B6BABDD9CF}">
+    <dataValidation type="list" allowBlank="1" sqref="H4:H18 F4" xr:uid="{3B54F6C1-9CE8-4B76-B6A6-89B6BABDD9CF}">
       <formula1>"feature,target"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4844,326 +5391,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489A2A01-8A02-433E-9304-E7013CA10D14}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="21.42578125" style="5"/>
-    <col min="3" max="3" width="21.42578125" style="85"/>
+    <col min="3" max="3" width="21.42578125" style="82"/>
     <col min="4" max="4" width="21.42578125" style="5"/>
-    <col min="5" max="5" width="21.42578125" style="85"/>
+    <col min="5" max="5" width="22.7109375" style="82" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="5"/>
-    <col min="7" max="7" width="21.42578125" style="85"/>
+    <col min="7" max="7" width="21.42578125" style="82"/>
     <col min="8" max="16384" width="21.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="G1" s="84"/>
-    </row>
-    <row r="2" spans="3:7" s="94" customFormat="1">
-      <c r="C2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="G2" s="92"/>
-    </row>
-    <row r="3" spans="3:7" s="95" customFormat="1">
-      <c r="C3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="G3" s="86"/>
-    </row>
-    <row r="4" spans="3:7" s="95" customFormat="1">
-      <c r="C4" s="83"/>
-      <c r="E4" s="82"/>
-      <c r="G4" s="87"/>
-    </row>
-    <row r="5" spans="3:7" s="95" customFormat="1">
-      <c r="C5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" spans="3:7" s="95" customFormat="1">
-      <c r="C6" s="83"/>
-      <c r="E6" s="80" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" spans="3:7" s="95" customFormat="1">
-      <c r="C7" s="83"/>
-      <c r="E7" s="81" t="s">
+      <c r="C1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="3:7" s="91" customFormat="1">
+      <c r="C2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="G2" s="89"/>
+    </row>
+    <row r="3" spans="3:7" s="92" customFormat="1">
+      <c r="C3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="3:7" s="92" customFormat="1">
+      <c r="C4" s="80"/>
+      <c r="E4" s="79"/>
+      <c r="G4" s="84"/>
+    </row>
+    <row r="5" spans="3:7" s="92" customFormat="1">
+      <c r="C5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="3:7" s="92" customFormat="1">
+      <c r="C6" s="80"/>
+      <c r="E6" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="3:7" s="92" customFormat="1">
+      <c r="C7" s="80"/>
+      <c r="E7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="83"/>
-    </row>
-    <row r="8" spans="3:7" s="95" customFormat="1">
-      <c r="C8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="G8" s="83"/>
-    </row>
-    <row r="9" spans="3:7" s="95" customFormat="1">
-      <c r="C9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="G9" s="83"/>
-    </row>
-    <row r="10" spans="3:7" s="95" customFormat="1">
-      <c r="C10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="G10" s="83"/>
-    </row>
-    <row r="11" spans="3:7" s="95" customFormat="1">
-      <c r="C11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="3:7" s="95" customFormat="1">
-      <c r="C12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="13" spans="3:7" s="95" customFormat="1">
-      <c r="C13" s="83"/>
-      <c r="E13" s="82"/>
-      <c r="G13" s="96"/>
-    </row>
-    <row r="14" spans="3:7" s="95" customFormat="1">
-      <c r="C14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="G14" s="96"/>
-    </row>
-    <row r="15" spans="3:7" s="95" customFormat="1">
-      <c r="C15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="G15" s="96"/>
-    </row>
-    <row r="16" spans="3:7" s="95" customFormat="1">
-      <c r="C16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="G16" s="96"/>
-    </row>
-    <row r="17" spans="2:8" s="95" customFormat="1">
-      <c r="C17" s="96"/>
-      <c r="E17" s="83"/>
-      <c r="G17" s="96"/>
-    </row>
-    <row r="18" spans="2:8" s="95" customFormat="1">
-      <c r="B18" s="80" t="s">
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="3:7" s="92" customFormat="1">
+      <c r="C8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="3:7" s="92" customFormat="1">
+      <c r="C9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="3:7" s="92" customFormat="1">
+      <c r="C10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="G10" s="80"/>
+    </row>
+    <row r="11" spans="3:7" s="92" customFormat="1">
+      <c r="C11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="3:7" s="92" customFormat="1">
+      <c r="C12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="G12" s="85"/>
+    </row>
+    <row r="13" spans="3:7" s="92" customFormat="1">
+      <c r="C13" s="80"/>
+      <c r="E13" s="79"/>
+      <c r="G13" s="93"/>
+    </row>
+    <row r="14" spans="3:7" s="92" customFormat="1">
+      <c r="C14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="G14" s="93"/>
+    </row>
+    <row r="15" spans="3:7" s="92" customFormat="1">
+      <c r="C15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="G15" s="93"/>
+    </row>
+    <row r="16" spans="3:7" s="92" customFormat="1">
+      <c r="C16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="G16" s="93"/>
+    </row>
+    <row r="17" spans="2:8" s="92" customFormat="1">
+      <c r="C17" s="93"/>
+      <c r="E17" s="80"/>
+      <c r="G17" s="93"/>
+    </row>
+    <row r="18" spans="2:8" s="92" customFormat="1">
+      <c r="B18" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="F18" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="80" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="80" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="90" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="89" t="s">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="89" t="s">
-        <v>108</v>
+        <v>39</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H23" s="76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H24" s="76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H26" s="76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H27" s="76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" s="74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H28" s="76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="75"/>
       <c r="H29" s="76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H30" s="76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H31" s="76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" s="76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H33" s="76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="D34" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="838" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC5C05E-9B21-464E-8FAA-E26508298A13}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="90" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -2480,8 +2480,8 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
@@ -3252,8 +3252,8 @@
   </sheetPr>
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
@@ -4053,8 +4053,8 @@
   </sheetPr>
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
@@ -4692,11 +4692,11 @@
   </sheetPr>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -5391,7 +5391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489A2A01-8A02-433E-9304-E7013CA10D14}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>

--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="838" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC5C05E-9B21-464E-8FAA-E26508298A13}"/>
+  <xr:revisionPtr revIDLastSave="874" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B52945D-C481-4D2B-9D3B-43B76E324CA1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="-1470" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="vehicles" sheetId="6" r:id="rId3"/>
     <sheet name="users" sheetId="4" r:id="rId4"/>
     <sheet name="data model" sheetId="7" r:id="rId5"/>
+    <sheet name="fulldata" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="222">
   <si>
     <t xml:space="preserve"># Column </t>
   </si>
@@ -1185,7 +1186,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,6 +1467,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2480,11 +2487,11 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="11.25"/>
@@ -3253,10 +3260,10 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="11.25"/>
@@ -3528,7 +3535,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:34" ht="22.5">
+    <row r="8" spans="1:34">
       <c r="A8" s="30">
         <v>5</v>
       </c>
@@ -4054,10 +4061,10 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75"/>
@@ -4692,11 +4699,11 @@
   </sheetPr>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4740,7 +4747,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="47.25">
+    <row r="2" spans="1:36" ht="31.5">
       <c r="A2" s="94" t="s">
         <v>0</v>
       </c>
@@ -5718,4 +5725,434 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431EB47A-8273-4BA8-B40F-D67EBC25E6AB}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="26" style="97" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.7109375" style="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="94"/>
+      <c r="B2" s="96"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B51">
+    <sortCondition ref="A3:A51"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="874" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B52945D-C481-4D2B-9D3B-43B76E324CA1}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="-1470" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -1459,6 +1459,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,12 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2536,16 +2536,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2571,10 +2571,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3306,16 +3306,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="31.5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3340,10 +3340,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="89.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4109,16 +4109,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4136,7 +4136,7 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="96" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -4144,10 +4144,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="94"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4700,10 +4700,10 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4748,16 +4748,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4783,10 +4783,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
@@ -5737,21 +5737,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="26" style="97" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.7109375" style="97" customWidth="1"/>
+    <col min="1" max="1" width="26" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.7109375" style="94" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="96"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="98"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
@@ -6093,7 +6093,7 @@
       <c r="A45" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="95" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="A49" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="95" t="s">
         <v>117</v>
       </c>
     </row>

--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="874" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B52945D-C481-4D2B-9D3B-43B76E324CA1}"/>
+  <xr:revisionPtr revIDLastSave="904" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A4991F0-D5A5-440D-9788-19A628272BDA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23895" yWindow="975" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="223">
   <si>
     <t xml:space="preserve"># Column </t>
   </si>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1189,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1471,8 +1474,17 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2491,7 +2503,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:C18"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="11.25"/>
@@ -2536,16 +2548,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2571,10 +2583,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3260,10 +3272,10 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:C21"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="11.25"/>
@@ -3306,16 +3318,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="31.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3340,10 +3352,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="89.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4076,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:C14"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75"/>
@@ -4109,16 +4121,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4136,7 +4148,7 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="98" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -4144,10 +4156,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4163,7 +4175,7 @@
       <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="96"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4699,11 +4711,11 @@
   </sheetPr>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4748,16 +4760,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="99" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4783,10 +4795,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
@@ -5729,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431EB47A-8273-4BA8-B40F-D67EBC25E6AB}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -5741,418 +5753,554 @@
     <col min="2" max="2" width="113.7109375" style="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" s="101" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="97" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="98"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" s="97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B12" s="50" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="C12" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="C13" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B14" s="50" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="C14" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B15" s="50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B16" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="C16" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B17" s="50" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="35" t="s">
+      <c r="C17" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B18" s="76" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="C18" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="C19" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
+      <c r="C20" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="35" t="s">
+      <c r="C21" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B22" s="76" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
+      <c r="C22" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B23" s="50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="20" t="s">
+      <c r="C23" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B24" s="50" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+      <c r="C24" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="20" t="s">
+      <c r="C25" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B26" s="50" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
+      <c r="C26" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B27" s="76" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="35" t="s">
+      <c r="C27" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B28" s="76" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="39" t="s">
+      <c r="C28" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B29" s="59" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="39" t="s">
+      <c r="C29" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B30" s="59" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
+      <c r="C30" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="42" t="s">
+      <c r="C43" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B44" s="95" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C44" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="23" t="s">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="42" t="s">
+      <c r="C47" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B48" s="95" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="35" t="s">
+      <c r="C48" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B49" s="17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>60</v>
+      <c r="C49" s="50" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B51">
-    <sortCondition ref="A3:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
+    <sortCondition ref="C2:C49"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C8 C12:C49" xr:uid="{497E5C94-C78D-47AD-BDDA-9A149C768599}">
+      <formula1>"feature,target"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="904" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A4991F0-D5A5-440D-9788-19A628272BDA}"/>
+  <xr:revisionPtr revIDLastSave="905" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3C1286-8C61-4F7B-B894-2DCA2224A400}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="23895" yWindow="975" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -632,12 +632,6 @@
 3 - Pedestrian</t>
   </si>
   <si>
-    <t>1 - Unharmed
-2 - Killed
-3 - Hospitalized
-4 - Slightly injured</t>
-  </si>
-  <si>
     <t>A gravidade da lesão do usuário. As vítimas de acidentes são classificadas em três categorias, além daquelas que não sofreram lesões.</t>
   </si>
   <si>
@@ -958,6 +952,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>1 - Uninjured
+2 - Fatal
+3 - Hospitalized injury
+4 - Minor injury</t>
   </si>
 </sst>
 </file>
@@ -1474,6 +1474,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,9 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2500,10 +2500,10 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:H18"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="11.25"/>
@@ -2548,16 +2548,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2583,10 +2583,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="21" t="s">
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2691,13 +2691,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="58">
         <v>0</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -2729,13 +2729,13 @@
         <v>15</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I6" s="58">
         <v>0</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2768,13 +2768,13 @@
         <v>15</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I7" s="58">
         <v>0</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3135,7 +3135,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -3168,13 +3168,13 @@
         <v>15</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I17" s="58">
         <v>0</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -3207,13 +3207,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I18" s="58">
         <v>0</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -3272,10 +3272,10 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:H21"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="11.25"/>
@@ -3318,16 +3318,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="31.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3352,10 +3352,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="89.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>23</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3502,7 +3502,7 @@
         <v>0.105648248200582</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -3538,7 +3538,7 @@
         <v>4.9202395560520799E-2</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3574,7 +3574,7 @@
         <v>0.92089888463581204</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -3642,13 +3642,13 @@
         <v>15</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I10" s="22">
         <v>4.5786707203164702E-4</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -3790,13 +3790,13 @@
         <v>15</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -3864,13 +3864,13 @@
         <v>15</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I16" s="33">
         <v>0.99772897932272298</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -3900,13 +3900,13 @@
         <v>15</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I17" s="28">
         <v>0.26770571967546303</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="101.25">
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="22.5">
@@ -4036,13 +4036,13 @@
         <v>15</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I21" s="48">
         <v>0</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4073,10 +4073,10 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:H14"/>
+      <selection pane="bottomRight" activeCell="B13" activeCellId="1" sqref="B11:B12 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75"/>
@@ -4121,16 +4121,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4148,7 +4148,7 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="99" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -4156,10 +4156,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="98"/>
+      <c r="J3" s="99"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4214,7 +4214,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="36" t="s">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4250,7 +4250,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="36" t="s">
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4286,7 +4286,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="40" t="s">
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -4433,7 +4433,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>22</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4471,7 +4471,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>22</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -4509,13 +4509,13 @@
         <v>112</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>37</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -4547,7 +4547,7 @@
         <v>113</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>22</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -4585,7 +4585,7 @@
         <v>114</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>16</v>
@@ -4602,7 +4602,7 @@
         <v>0.99177159621397004</v>
       </c>
       <c r="J14" s="67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4711,11 +4711,11 @@
   </sheetPr>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:H18"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4760,16 +4760,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="99" t="s">
+      <c r="B2" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4795,10 +4795,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="24" t="s">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4893,7 +4893,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="24" t="s">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4931,7 +4931,7 @@
         <v>98</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="24" t="s">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -5044,19 +5044,19 @@
         <v>127</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>21</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5084,13 +5084,13 @@
         <v>128</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>14</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -5124,7 +5124,7 @@
         <v>129</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>16</v>
@@ -5137,13 +5137,13 @@
         <v>15</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I11" s="22">
         <v>1.20218866733308E-2</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -5162,13 +5162,13 @@
         <v>130</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>14</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -5202,13 +5202,13 @@
         <v>131</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>14</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="123.75">
@@ -5234,13 +5234,13 @@
         <v>132</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>14</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="123.75">
@@ -5266,13 +5266,13 @@
         <v>133</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>14</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="90">
@@ -5304,7 +5304,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>14</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="146.25">
@@ -5336,7 +5336,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>14</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
@@ -5362,13 +5362,13 @@
         <v>136</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>14</v>
@@ -5377,13 +5377,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I18" s="22">
         <v>0</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5453,7 +5453,7 @@
     <row r="6" spans="3:7" s="92" customFormat="1">
       <c r="C6" s="80"/>
       <c r="E6" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="85"/>
     </row>
@@ -5516,19 +5516,19 @@
     </row>
     <row r="18" spans="2:8" s="92" customFormat="1">
       <c r="B18" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="93"/>
       <c r="F18" s="77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="93"/>
       <c r="H18" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -5743,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431EB47A-8273-4BA8-B40F-D67EBC25E6AB}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A49"/>
     </sheetView>
   </sheetViews>
@@ -5753,7 +5753,7 @@
     <col min="2" max="2" width="113.7109375" style="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="101" customFormat="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" s="98" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5772,7 +5772,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5783,7 +5783,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5794,7 +5794,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5802,10 +5802,10 @@
         <v>129</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5816,7 +5816,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5827,7 +5827,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5838,7 +5838,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5846,10 +5846,10 @@
         <v>136</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5860,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5871,7 +5871,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5956,7 +5956,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>21</v>
@@ -5967,7 +5967,7 @@
         <v>127</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>21</v>
@@ -5989,7 +5989,7 @@
         <v>111</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>21</v>
@@ -6044,7 +6044,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>21</v>
@@ -6055,7 +6055,7 @@
         <v>110</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>21</v>
@@ -6066,7 +6066,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>21</v>
@@ -6121,7 +6121,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="50" t="s">
         <v>21</v>
@@ -6165,7 +6165,7 @@
         <v>131</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="50" t="s">
         <v>21</v>
@@ -6176,7 +6176,7 @@
         <v>132</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="50" t="s">
         <v>21</v>
@@ -6187,7 +6187,7 @@
         <v>133</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>21</v>

--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="905" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A3C1286-8C61-4F7B-B894-2DCA2224A400}"/>
+  <xr:revisionPtr revIDLastSave="956" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9FC1A03-1D39-433A-B8AB-5860EF7F4359}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29640" yWindow="60" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="vehicles" sheetId="6" r:id="rId3"/>
     <sheet name="users" sheetId="4" r:id="rId4"/>
     <sheet name="data model" sheetId="7" r:id="rId5"/>
-    <sheet name="fulldata" sheetId="8" r:id="rId6"/>
+    <sheet name="strategy" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="225">
   <si>
     <t xml:space="preserve"># Column </t>
   </si>
@@ -951,20 +951,34 @@
     <t>float</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>1 - Uninjured
 2 - Fatal
 3 - Hospitalized injury
 4 - Minor injury</t>
+  </si>
+  <si>
+    <t>1.	I Merged all datasets as Ehsan did (tks Ehsan, you are right)
+2.	I Replaced any occurrences of '-1' in the `reason_travel` column of the `users` DataFrame with '0' (changing from '-1' meaning 'Not specified' to '0' meaning 'Unknown').
+3.	I Replaced any occurrences of '-1' in the DataFrame with `np.nan`.
+4.	I Removed the column `id_usager` from the `users` DataFrame.
+5.	I Removed all columns in the `data` DataFrame where the proportion of missing values is 15% or more.
+6.	I Removed duplicate rows from the `data` DataFrame.
+7.	I Removed from the `data` DataFrame all rows where the `maximum_speed` is either less than 5 or greater than 125 (as indicated by the IQR test showing them as outliers).
+8.	I Removed from the `data` DataFrame all rows where the `age` is less than 0 or greater than 97 (as indicated by the IQR test showing them as outliers).
+9.	I Replaced missing values (NaNs) in each column with values based on the existing distribution, while keeping the rows and maintaining the proportion.</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Result of correlations with the target variable 'gravity'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1085,8 +1099,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,8 +1158,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1181,6 +1214,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1189,7 +1237,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1463,27 +1511,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2500,7 +2551,7 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
@@ -2548,16 +2599,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="101" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2583,10 +2634,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3272,7 +3323,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
@@ -3318,16 +3369,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="31.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="101" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3352,10 +3403,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="89.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4121,16 +4172,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="101" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4148,7 +4199,7 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -4156,10 +4207,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4226,7 @@
       <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="99"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4711,11 +4762,11 @@
   </sheetPr>
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:B18"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4760,16 +4811,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="101" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4795,10 +4846,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
@@ -5050,7 +5101,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>157</v>
@@ -5411,7 +5462,7 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="11.25"/>
@@ -5740,567 +5791,725 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431EB47A-8273-4BA8-B40F-D67EBC25E6AB}">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1F7D3-97FD-4631-8D12-5BD7CC9F13A8}">
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.7109375" style="94" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="98" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:16" ht="33.75" customHeight="1">
+      <c r="A1" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="94"/>
+      <c r="O1" s="104" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="104"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="94"/>
+      <c r="O2" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="97">
         <v>1</v>
       </c>
-      <c r="B1" s="97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="97" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="94"/>
+      <c r="O3" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" s="99">
+        <v>0.22584299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="94"/>
+      <c r="O4" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="97">
+        <v>0.21323400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="94"/>
+      <c r="O5" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="99">
+        <v>0.173707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="94"/>
+      <c r="O6" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="97">
+        <v>0.133878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="94"/>
+      <c r="O7" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="99">
+        <v>0.10731300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="94"/>
+      <c r="O8" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="97">
+        <v>9.4816999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="94"/>
+      <c r="O9" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="P9" s="99">
+        <v>9.3984999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="94"/>
+      <c r="O10" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="97">
+        <v>7.7274999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="94"/>
+      <c r="O11" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="99">
+        <v>6.2716999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="94"/>
+      <c r="O12" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="97">
+        <v>3.5976000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="O13" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="99">
+        <v>3.5256999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="O14" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="97">
+        <v>3.0199E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="O15" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="99">
+        <v>2.3625E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="O16" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="97">
+        <v>1.4696000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="O17" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="99">
+        <v>1.3631000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="O18" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="97">
+        <v>7.6509999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="O19" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="99">
+        <v>6.1710000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="O20" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="97">
+        <v>3.8249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="O21" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="99">
+        <v>2.7669999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="O22" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="97">
+        <v>1.477E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="O23" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="99">
+        <v>7.6099999999999996E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="O24" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="97">
+        <v>6.8499999999999995E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="O25" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="99">
+        <v>2.3599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="O26" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="97">
+        <v>-2.03E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="O27" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="99">
+        <v>-1.165E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="O28" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="97">
+        <v>-2.3960000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+      <c r="O29" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="99">
+        <v>-4.1219999999999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+      <c r="O30" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="97">
+        <v>-4.2690000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+      <c r="O31" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="99">
+        <v>-6.6220000000000003E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+      <c r="O32" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="97">
+        <v>-7.3540000000000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O33" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="99">
+        <v>-7.4619999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O34" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="97">
+        <v>-7.9679999999999994E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O35" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="99">
+        <v>-9.5250000000000005E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O36" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="35" t="s">
+      <c r="P36" s="97">
+        <v>-1.0304000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O37" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="99">
+        <v>-1.3661E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O38" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="97">
+        <v>-1.6413000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O39" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="35" t="s">
+      <c r="P39" s="99">
+        <v>-2.6342999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O40" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="35" t="s">
+      <c r="P40" s="97">
+        <v>-6.7754999999999996E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O41" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="P41" s="99">
+        <v>-9.3984999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="15:16" ht="15.75" customHeight="1">
+      <c r="O42" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>21</v>
+      <c r="P42" s="97">
+        <v>-0.124719</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
-    <sortCondition ref="C2:C49"/>
-  </sortState>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C8 C12:C49" xr:uid="{497E5C94-C78D-47AD-BDDA-9A149C768599}">
-      <formula1>"feature,target"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L12"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="956" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9FC1A03-1D39-433A-B8AB-5860EF7F4359}"/>
+  <xr:revisionPtr revIDLastSave="982" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D3D208-7460-4D3C-AE38-42CC83A5C0EA}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="60" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="3" r:id="rId2"/>
     <sheet name="vehicles" sheetId="6" r:id="rId3"/>
     <sheet name="users" sheetId="4" r:id="rId4"/>
-    <sheet name="data model" sheetId="7" r:id="rId5"/>
-    <sheet name="strategy" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
+    <sheet name="data model" sheetId="7" r:id="rId6"/>
+    <sheet name="strategy" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="227">
   <si>
     <t xml:space="preserve"># Column </t>
   </si>
@@ -973,6 +974,12 @@
   <si>
     <t>Result of correlations with the target variable 'gravity'</t>
   </si>
+  <si>
+    <t>Int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
 </sst>
 </file>
 
@@ -988,6 +995,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2554,7 +2562,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="11.25"/>
@@ -3323,10 +3331,10 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="11.25"/>
@@ -4123,11 +4131,11 @@
   </sheetPr>
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" activeCellId="1" sqref="B11:B12 B13"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75"/>
@@ -4145,7 +4153,7 @@
     <col min="11" max="16384" width="27.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="22.5">
       <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
@@ -4171,7 +4179,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="31.5">
+    <row r="2" spans="1:36" ht="47.25">
       <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
@@ -4763,10 +4771,10 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -5458,6 +5466,356 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597595D3-5132-4167-AF97-71B738B65AC8}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B41">
+    <sortCondition ref="A1:A41"/>
+  </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489A2A01-8A02-433E-9304-E7013CA10D14}">
   <dimension ref="B1:H34"/>
   <sheetViews>
@@ -5790,11 +6148,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1F7D3-97FD-4631-8D12-5BD7CC9F13A8}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>

--- a/docs/Road accidents in France - Data Audit.xlsx
+++ b/docs/Road accidents in France - Data Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shiftup-my.sharepoint.com/personal/sd10725_stellantis_com/Documents/Documentos/DATA ANALYTICS/DATA ACADEMY/GITHUB/apr24cds_road_accidents/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="982" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D3D208-7460-4D3C-AE38-42CC83A5C0EA}"/>
+  <xr:revisionPtr revIDLastSave="1075" documentId="8_{413CF14A-D095-4A32-A42B-5D75AF0C1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54223CC2-2BCB-4AED-9074-335AB8F13794}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,8 @@
     <sheet name="locations" sheetId="3" r:id="rId2"/>
     <sheet name="vehicles" sheetId="6" r:id="rId3"/>
     <sheet name="users" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
+    <sheet name="merged data" sheetId="11" r:id="rId5"/>
     <sheet name="data model" sheetId="7" r:id="rId6"/>
-    <sheet name="strategy" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="225">
   <si>
     <t xml:space="preserve"># Column </t>
   </si>
@@ -958,34 +957,20 @@
 4 - Minor injury</t>
   </si>
   <si>
-    <t>1.	I Merged all datasets as Ehsan did (tks Ehsan, you are right)
-2.	I Replaced any occurrences of '-1' in the `reason_travel` column of the `users` DataFrame with '0' (changing from '-1' meaning 'Not specified' to '0' meaning 'Unknown').
-3.	I Replaced any occurrences of '-1' in the DataFrame with `np.nan`.
-4.	I Removed the column `id_usager` from the `users` DataFrame.
-5.	I Removed all columns in the `data` DataFrame where the proportion of missing values is 15% or more.
-6.	I Removed duplicate rows from the `data` DataFrame.
-7.	I Removed from the `data` DataFrame all rows where the `maximum_speed` is either less than 5 or greater than 125 (as indicated by the IQR test showing them as outliers).
-8.	I Removed from the `data` DataFrame all rows where the `age` is less than 0 or greater than 97 (as indicated by the IQR test showing them as outliers).
-9.	I Replaced missing values (NaNs) in each column with values based on the existing distribution, while keeping the rows and maintaining the proportion.</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
-    <t>Result of correlations with the target variable 'gravity'</t>
-  </si>
-  <si>
-    <t>Int64</t>
-  </si>
-  <si>
-    <t>float64</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>year - birth_year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1107,21 +1092,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,14 +1138,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1222,21 +1188,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1245,7 +1196,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1518,31 +1469,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2559,10 +2498,10 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="11.25"/>
@@ -2607,16 +2546,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2642,10 +2581,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3331,10 +3270,10 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.7109375" defaultRowHeight="11.25"/>
@@ -3377,16 +3316,16 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="31.5">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -3411,10 +3350,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="89.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4132,10 +4071,10 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="12.75"/>
@@ -4180,16 +4119,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="47.25">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -4207,7 +4146,7 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="96" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -4215,10 +4154,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4234,7 +4173,7 @@
       <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="100"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4771,10 +4710,10 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="11.25"/>
@@ -4819,16 +4758,16 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="31.5">
-      <c r="A2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="97" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -4854,10 +4793,10 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="89.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
@@ -5467,350 +5406,1288 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597595D3-5132-4167-AF97-71B738B65AC8}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="121.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="31.5">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="89.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="95">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="I3" s="58">
+        <v>0</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="56.25">
+      <c r="A4" s="95">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="58">
+        <v>0</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="56.25">
+      <c r="A5" s="95">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="56.25">
+      <c r="A6" s="95">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="58">
+        <v>0</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="56.25">
+      <c r="A7" s="95">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="58">
+        <v>0</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="112.5">
+      <c r="A8" s="95">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="58">
+        <v>0</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="112.5">
+      <c r="A9" s="95">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="112.5">
+      <c r="A10" s="95">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="56.25">
+      <c r="A11" s="95">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="58">
+        <v>0</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="56.25">
+      <c r="A12" s="95">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="58">
+        <v>0</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90">
+      <c r="A13" s="95">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="56.25">
+      <c r="A14" s="95">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="58">
+        <v>0</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="56.25">
+      <c r="A15" s="95">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="78.75">
+      <c r="A16" s="95">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="58">
+        <v>0</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="56.25">
+      <c r="A17" s="95">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="78.75">
+      <c r="A18" s="95">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="58">
+        <v>0</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="78.75">
+      <c r="A19" s="95">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="58">
+        <v>0</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="56.25">
+      <c r="A20" s="95">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="58">
+        <v>0</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="101.25">
+      <c r="A21" s="95">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="58">
+        <v>0</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="123.75">
+      <c r="A22" s="95">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="58">
+        <v>0</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="101.25">
+      <c r="A23" s="95">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I23" s="58">
+        <v>0</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="56.25">
+      <c r="A24" s="95">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I24" s="58">
+        <v>0</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="112.5">
+      <c r="A25" s="95">
+        <v>23</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="58">
+        <v>0</v>
+      </c>
+      <c r="J25" s="65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="112.5">
+      <c r="A26" s="95">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="58">
+        <v>0</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="78.75">
+      <c r="A27" s="95">
+        <v>25</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="58">
+        <v>0</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="409.5">
+      <c r="A28" s="95">
+        <v>26</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="58">
+        <v>0</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="236.25">
+      <c r="A29" s="95">
+        <v>27</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="58">
+        <v>0</v>
+      </c>
+      <c r="J29" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="90">
+      <c r="A30" s="95">
+        <v>28</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="58">
+        <v>0</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="123.75">
+      <c r="A31" s="95">
+        <v>29</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="58">
+        <v>0</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="393.75">
+      <c r="A32" s="95">
+        <v>30</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="58">
+        <v>0</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="90">
+      <c r="A33" s="95">
+        <v>31</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="58">
+        <v>0</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="90">
+      <c r="A34" s="95">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="58">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45">
+      <c r="A35" s="95">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="58">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="101.25">
+      <c r="A36" s="95">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="58">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="56.25">
+      <c r="A37" s="95">
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="58">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45">
+      <c r="A38" s="95">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="58">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="90">
+      <c r="A39" s="95">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="58">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="123.75">
+      <c r="A40" s="95">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="58">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="95">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
-        <v>225</v>
-      </c>
+      <c r="D41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="58">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B41">
-    <sortCondition ref="A1:A41"/>
-  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="F3:F21 H3:H23 H25:H40" xr:uid="{55063EE4-4277-489F-B87B-39BA69EEAD04}">
+      <formula1>"feature,target"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D3:D22 D25:E26" xr:uid="{B6362CBD-8B8B-4AB8-A5F5-E552CFDD492A}">
+      <formula1>"Quantitative,Categorical - Binary,Categorical - 3 to 5 categories,Categorical - 6 to 10 categories,Categorical - more than 10 categories,Unique Value"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6146,728 +7023,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC1F7D3-97FD-4631-8D12-5BD7CC9F13A8}">
-  <dimension ref="A1:P42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="95" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="33.75" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="94"/>
-      <c r="O1" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="104"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="94"/>
-      <c r="O2" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="94"/>
-      <c r="O3" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="99">
-        <v>0.22584299999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="94"/>
-      <c r="O4" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="97">
-        <v>0.21323400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="94"/>
-      <c r="O5" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="P5" s="99">
-        <v>0.173707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="94"/>
-      <c r="O6" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="P6" s="97">
-        <v>0.133878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="94"/>
-      <c r="O7" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="99">
-        <v>0.10731300000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="94"/>
-      <c r="O8" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="P8" s="97">
-        <v>9.4816999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="94"/>
-      <c r="O9" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="99">
-        <v>9.3984999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="94"/>
-      <c r="O10" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="97">
-        <v>7.7274999999999996E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="94"/>
-      <c r="O11" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="99">
-        <v>6.2716999999999995E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="94"/>
-      <c r="O12" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="97">
-        <v>3.5976000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="O13" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="99">
-        <v>3.5256999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="O14" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="97">
-        <v>3.0199E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="O15" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="99">
-        <v>2.3625E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="O16" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="97">
-        <v>1.4696000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="O17" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="99">
-        <v>1.3631000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="O18" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="97">
-        <v>7.6509999999999998E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="O19" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="99">
-        <v>6.1710000000000003E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="O20" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="97">
-        <v>3.8249999999999998E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="O21" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="P21" s="99">
-        <v>2.7669999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="O22" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="97">
-        <v>1.477E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="O23" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="99">
-        <v>7.6099999999999996E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="O24" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="97">
-        <v>6.8499999999999995E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="O25" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="99">
-        <v>2.3599999999999999E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="O26" s="96" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="97">
-        <v>-2.03E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="O27" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="P27" s="99">
-        <v>-1.165E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="O28" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="97">
-        <v>-2.3960000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="O29" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="99">
-        <v>-4.1219999999999998E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="O30" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="97">
-        <v>-4.2690000000000002E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
-      <c r="O31" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="99">
-        <v>-6.6220000000000003E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
-      <c r="O32" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="97">
-        <v>-7.3540000000000003E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O33" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="99">
-        <v>-7.4619999999999999E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O34" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="P34" s="97">
-        <v>-7.9679999999999994E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O35" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="99">
-        <v>-9.5250000000000005E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O36" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="P36" s="97">
-        <v>-1.0304000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O37" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" s="99">
-        <v>-1.3661E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O38" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="97">
-        <v>-1.6413000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O39" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="99">
-        <v>-2.6342999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O40" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="P40" s="97">
-        <v>-6.7754999999999996E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O41" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="P41" s="99">
-        <v>-9.3984999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="15:16" ht="15.75" customHeight="1">
-      <c r="O42" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="P42" s="97">
-        <v>-0.124719</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:L12"/>
-    <mergeCell ref="O1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>